--- a/outputs-HGR-r202-archive/g__Phil1_train.xlsx
+++ b/outputs-HGR-r202-archive/g__Phil1_train.xlsx
@@ -502,7 +502,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -813,17 +813,17 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS52_1.fasta</t>
+          <t>label_UMGS52_0.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.999953762163185</v>
+        <v>0.9999999903669337</v>
       </c>
       <c r="C15" t="n">
-        <v>4.623783681499178e-05</v>
+        <v>9.633066370484267e-09</v>
       </c>
       <c r="D15" t="n">
-        <v>0.999953762163185</v>
+        <v>0.9999999903669337</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -834,17 +834,17 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS52_13.fasta</t>
+          <t>label_UMGS52_25.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999114424386041</v>
+        <v>0.9950790551450216</v>
       </c>
       <c r="C16" t="n">
-        <v>8.855756139589884e-05</v>
+        <v>0.004920944854978453</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999114424386041</v>
+        <v>0.9950790551450216</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -855,17 +855,17 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS52_18.fasta</t>
+          <t>label_UMGS52_26.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9997314046402215</v>
+        <v>0.9735816363303882</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0002685953597784757</v>
+        <v>0.0264183636696118</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9997314046402215</v>
+        <v>0.9735816363303882</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -876,17 +876,17 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS52_32.fasta</t>
+          <t>label_UMGS52_29.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9975905894303929</v>
+        <v>0.9999482594955889</v>
       </c>
       <c r="C18" t="n">
-        <v>0.002409410569607061</v>
+        <v>5.174050441109182e-05</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9975905894303929</v>
+        <v>0.9999482594955889</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -897,17 +897,17 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS52_36.fasta</t>
+          <t>label_UMGS52_39.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9844685751786201</v>
+        <v>0.9908237568911602</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01553142482137996</v>
+        <v>0.009176243108839834</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9844685751786201</v>
+        <v>0.9908237568911602</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -918,17 +918,17 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS52_4.fasta</t>
+          <t>label_UMGS52_43.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9987949025206649</v>
+        <v>0.9602756537557431</v>
       </c>
       <c r="C20" t="n">
-        <v>0.001205097479335066</v>
+        <v>0.03972434624425687</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9987949025206649</v>
+        <v>0.9602756537557431</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -939,17 +939,17 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS52_46.fasta</t>
+          <t>label_UMGS52_47.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9359741074180031</v>
+        <v>0.9999825809972873</v>
       </c>
       <c r="C21" t="n">
-        <v>0.06402589258199691</v>
+        <v>1.741900271264596e-05</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9359741074180031</v>
+        <v>0.9999825809972873</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -960,17 +960,17 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS52_7.fasta</t>
+          <t>label_UMGS52_10.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999816949779116</v>
+        <v>0.9995813644787883</v>
       </c>
       <c r="C22" t="n">
-        <v>1.830502208848913e-05</v>
+        <v>0.0004186355212116441</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999816949779116</v>
+        <v>0.9995813644787883</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -981,17 +981,17 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS52_9.fasta</t>
+          <t>label_UMGS52_12.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999478371123345</v>
+        <v>0.9998286918978057</v>
       </c>
       <c r="C23" t="n">
-        <v>5.216288766556462e-05</v>
+        <v>0.0001713081021943936</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999478371123345</v>
+        <v>0.9998286918978057</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1002,17 +1002,17 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS52_0.fasta</t>
+          <t>label_UMGS52_14.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999999903669337</v>
+        <v>0.9996950637616666</v>
       </c>
       <c r="C24" t="n">
-        <v>9.633066370484267e-09</v>
+        <v>0.0003049362383334303</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999999903669337</v>
+        <v>0.9996950637616666</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1023,17 +1023,17 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS52_25.fasta</t>
+          <t>label_UMGS52_15.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9950790551450216</v>
+        <v>0.9997844317462768</v>
       </c>
       <c r="C25" t="n">
-        <v>0.004920944854978453</v>
+        <v>0.0002155682537231847</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9950790551450216</v>
+        <v>0.9997844317462768</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1044,17 +1044,17 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS52_26.fasta</t>
+          <t>label_UMGS52_19.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9735816363303882</v>
+        <v>0.9999418922715564</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0264183636696118</v>
+        <v>5.810772844363318e-05</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9735816363303882</v>
+        <v>0.9999418922715564</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1065,17 +1065,17 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS52_29.fasta</t>
+          <t>label_UMGS52_2.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.9999482594955889</v>
+        <v>0.9999974889622328</v>
       </c>
       <c r="C27" t="n">
-        <v>5.174050441109182e-05</v>
+        <v>2.51103776716429e-06</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9999482594955889</v>
+        <v>0.9999974889622328</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1086,17 +1086,17 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS52_39.fasta</t>
+          <t>label_UMGS52_41.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.9908237568911602</v>
+        <v>0.9783168649385058</v>
       </c>
       <c r="C28" t="n">
-        <v>0.009176243108839834</v>
+        <v>0.02168313506149422</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9908237568911602</v>
+        <v>0.9783168649385058</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1107,17 +1107,17 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS52_43.fasta</t>
+          <t>label_UMGS52_44.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.9602756537557431</v>
+        <v>0.99321845320429</v>
       </c>
       <c r="C29" t="n">
-        <v>0.03972434624425687</v>
+        <v>0.006781546795709988</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9602756537557431</v>
+        <v>0.99321845320429</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1128,17 +1128,17 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS52_47.fasta</t>
+          <t>label_UMGS52_48.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.9999825809972873</v>
+        <v>0.5970524693389683</v>
       </c>
       <c r="C30" t="n">
-        <v>1.741900271264596e-05</v>
+        <v>0.4029475306610317</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9999825809972873</v>
+        <v>0.5970524693389683</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1149,17 +1149,17 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS52_10.fasta</t>
+          <t>label_UMGS52_5.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.9995813644787883</v>
+        <v>0.9520850477757041</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0004186355212116441</v>
+        <v>0.04791495222429586</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9995813644787883</v>
+        <v>0.9520850477757041</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1170,17 +1170,17 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS52_12.fasta</t>
+          <t>label_UMGS52_8.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.9998286918978057</v>
+        <v>0.9999625660424667</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0001713081021943936</v>
+        <v>3.743395753333906e-05</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9998286918978057</v>
+        <v>0.9999625660424667</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1191,17 +1191,17 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS52_14.fasta</t>
+          <t>label_UMGS52_16.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.9996950637616666</v>
+        <v>0.9994100964716417</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0003049362383334303</v>
+        <v>0.0005899035283582661</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9996950637616666</v>
+        <v>0.9994100964716417</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1212,17 +1212,17 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS52_15.fasta</t>
+          <t>label_UMGS52_17.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.9997844317462768</v>
+        <v>0.9991143022990077</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0002155682537231847</v>
+        <v>0.0008856977009923624</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9997844317462768</v>
+        <v>0.9991143022990077</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1233,17 +1233,17 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS52_19.fasta</t>
+          <t>label_UMGS52_21.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.9999418922715564</v>
+        <v>0.9964816597380908</v>
       </c>
       <c r="C35" t="n">
-        <v>5.810772844363318e-05</v>
+        <v>0.00351834026190921</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9999418922715564</v>
+        <v>0.9964816597380908</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1254,17 +1254,17 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS52_2.fasta</t>
+          <t>label_UMGS52_22.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.9999974889622328</v>
+        <v>0.9979698157174753</v>
       </c>
       <c r="C36" t="n">
-        <v>2.51103776716429e-06</v>
+        <v>0.002030184282524696</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9999974889622328</v>
+        <v>0.9979698157174753</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1275,17 +1275,17 @@
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS52_41.fasta</t>
+          <t>label_UMGS52_27.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.9783168649385058</v>
+        <v>0.9966008547907803</v>
       </c>
       <c r="C37" t="n">
-        <v>0.02168313506149422</v>
+        <v>0.003399145209219634</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9783168649385058</v>
+        <v>0.9966008547907803</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1296,17 +1296,17 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS52_44.fasta</t>
+          <t>label_UMGS52_28.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.99321845320429</v>
+        <v>0.8714396572192455</v>
       </c>
       <c r="C38" t="n">
-        <v>0.006781546795709988</v>
+        <v>0.1285603427807545</v>
       </c>
       <c r="D38" t="n">
-        <v>0.99321845320429</v>
+        <v>0.8714396572192455</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1317,17 +1317,17 @@
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS52_48.fasta</t>
+          <t>label_UMGS52_3.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.5970524693389683</v>
+        <v>0.9994770824604635</v>
       </c>
       <c r="C39" t="n">
-        <v>0.4029475306610317</v>
+        <v>0.000522917539536526</v>
       </c>
       <c r="D39" t="n">
-        <v>0.5970524693389683</v>
+        <v>0.9994770824604635</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1338,17 +1338,17 @@
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS52_5.fasta</t>
+          <t>label_UMGS52_34.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.9520850477757041</v>
+        <v>0.9861078945173146</v>
       </c>
       <c r="C40" t="n">
-        <v>0.04791495222429586</v>
+        <v>0.01389210548268542</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9520850477757041</v>
+        <v>0.9861078945173146</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1359,17 +1359,17 @@
     <row r="41">
       <c r="A41" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS52_8.fasta</t>
+          <t>label_UMGS52_35.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.9999625660424667</v>
+        <v>0.9816287482160005</v>
       </c>
       <c r="C41" t="n">
-        <v>3.743395753333906e-05</v>
+        <v>0.0183712517839995</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9999625660424667</v>
+        <v>0.9816287482160005</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1380,17 +1380,17 @@
     <row r="42">
       <c r="A42" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS52_16.fasta</t>
+          <t>label_UMGS52_11.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.9994100964716417</v>
+        <v>0.9999842169453831</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0005899035283582661</v>
+        <v>1.578305461688235e-05</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9994100964716417</v>
+        <v>0.9999842169453831</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1401,17 +1401,17 @@
     <row r="43">
       <c r="A43" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS52_17.fasta</t>
+          <t>label_UMGS52_20.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.9991143022990077</v>
+        <v>0.9748876340164956</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0008856977009923624</v>
+        <v>0.02511236598350447</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9991143022990077</v>
+        <v>0.9748876340164956</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1422,17 +1422,17 @@
     <row r="44">
       <c r="A44" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS52_21.fasta</t>
+          <t>label_UMGS52_23.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.9964816597380908</v>
+        <v>0.9950278053227584</v>
       </c>
       <c r="C44" t="n">
-        <v>0.00351834026190921</v>
+        <v>0.004972194677241604</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9964816597380908</v>
+        <v>0.9950278053227584</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1443,17 +1443,17 @@
     <row r="45">
       <c r="A45" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS52_22.fasta</t>
+          <t>label_UMGS52_24.fasta</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.9979698157174753</v>
+        <v>0.9991552852384868</v>
       </c>
       <c r="C45" t="n">
-        <v>0.002030184282524696</v>
+        <v>0.0008447147615131607</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9979698157174753</v>
+        <v>0.9991552852384868</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1464,17 +1464,17 @@
     <row r="46">
       <c r="A46" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS52_27.fasta</t>
+          <t>label_UMGS52_30.fasta</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.9966008547907803</v>
+        <v>0.8459609442203325</v>
       </c>
       <c r="C46" t="n">
-        <v>0.003399145209219634</v>
+        <v>0.1540390557796675</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9966008547907803</v>
+        <v>0.8459609442203325</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1485,17 +1485,17 @@
     <row r="47">
       <c r="A47" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS52_28.fasta</t>
+          <t>label_UMGS52_31.fasta</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.8714396572192455</v>
+        <v>0.9680807923756924</v>
       </c>
       <c r="C47" t="n">
-        <v>0.1285603427807545</v>
+        <v>0.03191920762430756</v>
       </c>
       <c r="D47" t="n">
-        <v>0.8714396572192455</v>
+        <v>0.9680807923756924</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1506,17 +1506,17 @@
     <row r="48">
       <c r="A48" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS52_3.fasta</t>
+          <t>label_UMGS52_33.fasta</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.9994770824604635</v>
+        <v>0.9904450295920859</v>
       </c>
       <c r="C48" t="n">
-        <v>0.000522917539536526</v>
+        <v>0.009554970407914056</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9994770824604635</v>
+        <v>0.9904450295920859</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1527,17 +1527,17 @@
     <row r="49">
       <c r="A49" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS52_34.fasta</t>
+          <t>label_UMGS52_37.fasta</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.9861078945173146</v>
+        <v>0.5757372483269577</v>
       </c>
       <c r="C49" t="n">
-        <v>0.01389210548268542</v>
+        <v>0.4242627516730423</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9861078945173146</v>
+        <v>0.5757372483269577</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1548,17 +1548,17 @@
     <row r="50">
       <c r="A50" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS52_35.fasta</t>
+          <t>label_UMGS52_38.fasta</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.9816287482160005</v>
+        <v>0.815921062042515</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0183712517839995</v>
+        <v>0.184078937957485</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9816287482160005</v>
+        <v>0.815921062042515</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1569,38 +1569,38 @@
     <row r="51">
       <c r="A51" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS52_11.fasta</t>
+          <t>label_UMGS52_40.fasta</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.9999842169453831</v>
+        <v>0.006571439042135085</v>
       </c>
       <c r="C51" t="n">
-        <v>1.578305461688235e-05</v>
+        <v>0.9934285609578649</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9999842169453831</v>
+        <v>0.9934285609578649</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>s__Phil1 sp001940855</t>
+          <t>s__Phil1 sp004558525</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS52_20.fasta</t>
+          <t>label_UMGS52_42.fasta</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.9748876340164956</v>
+        <v>0.9555957584736343</v>
       </c>
       <c r="C52" t="n">
-        <v>0.02511236598350447</v>
+        <v>0.04440424152636568</v>
       </c>
       <c r="D52" t="n">
-        <v>0.9748876340164956</v>
+        <v>0.9555957584736343</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1611,229 +1611,40 @@
     <row r="53">
       <c r="A53" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS52_23.fasta</t>
+          <t>label_UMGS52_45.fasta</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.9950278053227584</v>
+        <v>0.2467934517357155</v>
       </c>
       <c r="C53" t="n">
-        <v>0.004972194677241604</v>
+        <v>0.7532065482642845</v>
       </c>
       <c r="D53" t="n">
-        <v>0.9950278053227584</v>
+        <v>0.7532065482642845</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>s__Phil1 sp001940855</t>
+          <t>s__Phil1 sp004558525</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS52_24.fasta</t>
+          <t>label_UMGS52_6.fasta</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.9991552852384868</v>
+        <v>0.9998521997997606</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0008447147615131607</v>
+        <v>0.0001478002002393965</v>
       </c>
       <c r="D54" t="n">
-        <v>0.9991552852384868</v>
+        <v>0.9998521997997606</v>
       </c>
       <c r="E54" t="inlineStr">
-        <is>
-          <t>s__Phil1 sp001940855</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS52_30.fasta</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>0.8459609442203325</v>
-      </c>
-      <c r="C55" t="n">
-        <v>0.1540390557796675</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.8459609442203325</v>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>s__Phil1 sp001940855</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS52_31.fasta</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>0.9680807923756924</v>
-      </c>
-      <c r="C56" t="n">
-        <v>0.03191920762430756</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.9680807923756924</v>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>s__Phil1 sp001940855</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS52_33.fasta</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>0.9904450295920859</v>
-      </c>
-      <c r="C57" t="n">
-        <v>0.009554970407914056</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.9904450295920859</v>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>s__Phil1 sp001940855</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS52_37.fasta</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>0.5757372483269577</v>
-      </c>
-      <c r="C58" t="n">
-        <v>0.4242627516730423</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.5757372483269577</v>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>s__Phil1 sp001940855</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS52_38.fasta</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>0.815921062042515</v>
-      </c>
-      <c r="C59" t="n">
-        <v>0.184078937957485</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.815921062042515</v>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>s__Phil1 sp001940855</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS52_40.fasta</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>0.006571439042135085</v>
-      </c>
-      <c r="C60" t="n">
-        <v>0.9934285609578649</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.9934285609578649</v>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>s__Phil1 sp004558525</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS52_42.fasta</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>0.9555957584736343</v>
-      </c>
-      <c r="C61" t="n">
-        <v>0.04440424152636568</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.9555957584736343</v>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>s__Phil1 sp001940855</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS52_45.fasta</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>0.2467934517357155</v>
-      </c>
-      <c r="C62" t="n">
-        <v>0.7532065482642845</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.7532065482642845</v>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>s__Phil1 sp004558525</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS52_6.fasta</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>0.9998521997997606</v>
-      </c>
-      <c r="C63" t="n">
-        <v>0.0001478002002393965</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.9998521997997606</v>
-      </c>
-      <c r="E63" t="inlineStr">
         <is>
           <t>s__Phil1 sp001940855</t>
         </is>
@@ -1850,7 +1661,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E132"/>
+  <dimension ref="A1:E109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2287,38 +2098,38 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_109.fasta</t>
+          <t>label_UMGS1288_1.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.002126985524222524</v>
+        <v>0.7889416578170187</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9978730144757775</v>
+        <v>0.2110583421829814</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9978730144757775</v>
+        <v>0.7889416578170187</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>s__Phil1 sp004558525</t>
+          <t>s__Phil1 sp001940855</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_11.fasta</t>
+          <t>label_UMGS1288_101.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.003344842177446572</v>
+        <v>0.02148571080509598</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9966551578225534</v>
+        <v>0.978514289194904</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9966551578225534</v>
+        <v>0.978514289194904</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2329,17 +2140,17 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_22.fasta</t>
+          <t>label_UMGS1288_102.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>8.154834764639851e-05</v>
+        <v>2.633230284110333e-05</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9999184516523536</v>
+        <v>0.9999736676971589</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999184516523536</v>
+        <v>0.9999736676971589</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -2350,17 +2161,17 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_28.fasta</t>
+          <t>label_UMGS1288_105.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.0001265280598492513</v>
+        <v>0.02087560001445754</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9998734719401507</v>
+        <v>0.9791243999855425</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9998734719401507</v>
+        <v>0.9791243999855425</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -2371,17 +2182,17 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_29.fasta</t>
+          <t>label_UMGS1288_107.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>9.155970699725735e-06</v>
+        <v>0.0009121427982853314</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9999908440293003</v>
+        <v>0.9990878572017147</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999908440293003</v>
+        <v>0.9990878572017147</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -2392,17 +2203,17 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_33.fasta</t>
+          <t>label_UMGS1288_111.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.0001862217754619033</v>
+        <v>0.001701019340798582</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9998137782245381</v>
+        <v>0.9982989806592014</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9998137782245381</v>
+        <v>0.9982989806592014</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -2413,17 +2224,17 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_34.fasta</t>
+          <t>label_UMGS1288_12.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.007817561972970011</v>
+        <v>4.190982008989153e-06</v>
       </c>
       <c r="C27" t="n">
-        <v>0.99218243802703</v>
+        <v>0.999995809017991</v>
       </c>
       <c r="D27" t="n">
-        <v>0.99218243802703</v>
+        <v>0.999995809017991</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -2434,17 +2245,17 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_39.fasta</t>
+          <t>label_UMGS1288_20.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>7.003411312878072e-06</v>
+        <v>3.989202810195103e-06</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9999929965886871</v>
+        <v>0.9999960107971898</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9999929965886871</v>
+        <v>0.9999960107971898</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2455,17 +2266,17 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_40.fasta</t>
+          <t>label_UMGS1288_27.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.0229980899501e-05</v>
+        <v>9.289778340138e-06</v>
       </c>
       <c r="C29" t="n">
-        <v>0.9999897700191005</v>
+        <v>0.9999907102216599</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9999897700191005</v>
+        <v>0.9999907102216599</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -2476,17 +2287,17 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_46.fasta</t>
+          <t>label_UMGS1288_3.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>9.098498731652249e-06</v>
+        <v>1.232265449124803e-06</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9999909015012683</v>
+        <v>0.9999987677345509</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9999909015012683</v>
+        <v>0.9999987677345509</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -2497,17 +2308,17 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_5.fasta</t>
+          <t>label_UMGS1288_31.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4.698918551193643e-05</v>
+        <v>2.858783327064351e-06</v>
       </c>
       <c r="C31" t="n">
-        <v>0.9999530108144881</v>
+        <v>0.9999971412166729</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9999530108144881</v>
+        <v>0.9999971412166729</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -2518,17 +2329,17 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_51.fasta</t>
+          <t>label_UMGS1288_37.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>5.068963287191419e-05</v>
+        <v>6.910282764893693e-07</v>
       </c>
       <c r="C32" t="n">
-        <v>0.9999493103671281</v>
+        <v>0.9999993089717235</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9999493103671281</v>
+        <v>0.9999993089717235</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -2539,17 +2350,17 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_53.fasta</t>
+          <t>label_UMGS1288_38.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3.42171253325807e-05</v>
+        <v>9.973762489234872e-07</v>
       </c>
       <c r="C33" t="n">
-        <v>0.9999657828746674</v>
+        <v>0.9999990026237511</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9999657828746674</v>
+        <v>0.9999990026237511</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -2560,17 +2371,17 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_61.fasta</t>
+          <t>label_UMGS1288_43.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.0009814577938846991</v>
+        <v>3.340833866216641e-07</v>
       </c>
       <c r="C34" t="n">
-        <v>0.9990185422061153</v>
+        <v>0.9999996659166134</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9990185422061153</v>
+        <v>0.9999996659166134</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -2581,17 +2392,17 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_62.fasta</t>
+          <t>label_UMGS1288_44.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.0001174519564510756</v>
+        <v>5.096798021408944e-07</v>
       </c>
       <c r="C35" t="n">
-        <v>0.9998825480435489</v>
+        <v>0.9999994903201979</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9998825480435489</v>
+        <v>0.9999994903201979</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -2602,17 +2413,17 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_64.fasta</t>
+          <t>label_UMGS1288_45.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.0007125782173147409</v>
+        <v>4.211844464863113e-06</v>
       </c>
       <c r="C36" t="n">
-        <v>0.9992874217826853</v>
+        <v>0.9999957881555351</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9992874217826853</v>
+        <v>0.9999957881555351</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -2623,17 +2434,17 @@
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_66.fasta</t>
+          <t>label_UMGS1288_57.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>5.840461570594258e-06</v>
+        <v>1.460568581634902e-07</v>
       </c>
       <c r="C37" t="n">
-        <v>0.9999941595384294</v>
+        <v>0.9999998539431418</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9999941595384294</v>
+        <v>0.9999998539431418</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -2644,17 +2455,17 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_83.fasta</t>
+          <t>label_UMGS1288_60.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>8.022496122117584e-05</v>
+        <v>1.628843239220856e-05</v>
       </c>
       <c r="C38" t="n">
-        <v>0.9999197750387788</v>
+        <v>0.9999837115676078</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9999197750387788</v>
+        <v>0.9999837115676078</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2665,17 +2476,17 @@
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_84.fasta</t>
+          <t>label_UMGS1288_69.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>7.39406067825632e-05</v>
+        <v>2.922871624688739e-05</v>
       </c>
       <c r="C39" t="n">
-        <v>0.9999260593932174</v>
+        <v>0.9999707712837531</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9999260593932174</v>
+        <v>0.9999707712837531</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -2686,17 +2497,17 @@
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_88.fasta</t>
+          <t>label_UMGS1288_75.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.0001575452596205285</v>
+        <v>0.1241754983175142</v>
       </c>
       <c r="C40" t="n">
-        <v>0.9998424547403795</v>
+        <v>0.8758245016824858</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9998424547403795</v>
+        <v>0.8758245016824858</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2707,17 +2518,17 @@
     <row r="41">
       <c r="A41" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_9.fasta</t>
+          <t>label_UMGS1288_8.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>9.080941334083104e-05</v>
+        <v>2.055888129737227e-07</v>
       </c>
       <c r="C41" t="n">
-        <v>0.9999091905866592</v>
+        <v>0.999999794411187</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9999091905866592</v>
+        <v>0.999999794411187</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2728,17 +2539,17 @@
     <row r="42">
       <c r="A42" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_90.fasta</t>
+          <t>label_UMGS1288_80.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.0002115206692121507</v>
+        <v>0.003786224274984651</v>
       </c>
       <c r="C42" t="n">
-        <v>0.9997884793307878</v>
+        <v>0.9962137757250153</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9997884793307878</v>
+        <v>0.9962137757250153</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2749,17 +2560,17 @@
     <row r="43">
       <c r="A43" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_92.fasta</t>
+          <t>label_UMGS1288_85.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2.445111443527548e-05</v>
+        <v>0.002118501093763103</v>
       </c>
       <c r="C43" t="n">
-        <v>0.9999755488855647</v>
+        <v>0.9978814989062369</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9999755488855647</v>
+        <v>0.9978814989062369</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2770,17 +2581,17 @@
     <row r="44">
       <c r="A44" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_1.fasta</t>
+          <t>label_UMGS1288_91.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.7889416578170187</v>
+        <v>0.500790836366984</v>
       </c>
       <c r="C44" t="n">
-        <v>0.2110583421829814</v>
+        <v>0.499209163633016</v>
       </c>
       <c r="D44" t="n">
-        <v>0.7889416578170187</v>
+        <v>0.500790836366984</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2791,17 +2602,17 @@
     <row r="45">
       <c r="A45" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_101.fasta</t>
+          <t>label_UMGS1288_99.fasta</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.02148571080509598</v>
+        <v>0.0793717836703125</v>
       </c>
       <c r="C45" t="n">
-        <v>0.978514289194904</v>
+        <v>0.9206282163296875</v>
       </c>
       <c r="D45" t="n">
-        <v>0.978514289194904</v>
+        <v>0.9206282163296875</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2812,17 +2623,17 @@
     <row r="46">
       <c r="A46" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_102.fasta</t>
+          <t>label_UMGS1288_10.fasta</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2.633230284110333e-05</v>
+        <v>6.64407517891874e-08</v>
       </c>
       <c r="C46" t="n">
-        <v>0.9999736676971589</v>
+        <v>0.9999999335592482</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9999736676971589</v>
+        <v>0.9999999335592482</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2833,17 +2644,17 @@
     <row r="47">
       <c r="A47" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_105.fasta</t>
+          <t>label_UMGS1288_104.fasta</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.02087560001445754</v>
+        <v>0.001628438297915369</v>
       </c>
       <c r="C47" t="n">
-        <v>0.9791243999855425</v>
+        <v>0.9983715617020846</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9791243999855425</v>
+        <v>0.9983715617020846</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2854,17 +2665,17 @@
     <row r="48">
       <c r="A48" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_107.fasta</t>
+          <t>label_UMGS1288_110.fasta</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.0009121427982853314</v>
+        <v>0.0007733545561410261</v>
       </c>
       <c r="C48" t="n">
-        <v>0.9990878572017147</v>
+        <v>0.999226645443859</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9990878572017147</v>
+        <v>0.999226645443859</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2875,17 +2686,17 @@
     <row r="49">
       <c r="A49" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_111.fasta</t>
+          <t>label_UMGS1288_15.fasta</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.001701019340798582</v>
+        <v>2.027871610632559e-07</v>
       </c>
       <c r="C49" t="n">
-        <v>0.9982989806592014</v>
+        <v>0.9999997972128389</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9982989806592014</v>
+        <v>0.9999997972128389</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2896,17 +2707,17 @@
     <row r="50">
       <c r="A50" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_12.fasta</t>
+          <t>label_UMGS1288_19.fasta</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>4.190982008989153e-06</v>
+        <v>1.768763524423456e-06</v>
       </c>
       <c r="C50" t="n">
-        <v>0.999995809017991</v>
+        <v>0.9999982312364756</v>
       </c>
       <c r="D50" t="n">
-        <v>0.999995809017991</v>
+        <v>0.9999982312364756</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2917,17 +2728,17 @@
     <row r="51">
       <c r="A51" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_20.fasta</t>
+          <t>label_UMGS1288_30.fasta</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>3.989202810195103e-06</v>
+        <v>1.465699151603772e-06</v>
       </c>
       <c r="C51" t="n">
-        <v>0.9999960107971898</v>
+        <v>0.9999985343008484</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9999960107971898</v>
+        <v>0.9999985343008484</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2938,17 +2749,17 @@
     <row r="52">
       <c r="A52" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_27.fasta</t>
+          <t>label_UMGS1288_32.fasta</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>9.289778340138e-06</v>
+        <v>1.07762860324101e-06</v>
       </c>
       <c r="C52" t="n">
-        <v>0.9999907102216599</v>
+        <v>0.9999989223713968</v>
       </c>
       <c r="D52" t="n">
-        <v>0.9999907102216599</v>
+        <v>0.9999989223713968</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2959,17 +2770,17 @@
     <row r="53">
       <c r="A53" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_3.fasta</t>
+          <t>label_UMGS1288_36.fasta</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1.232265449124803e-06</v>
+        <v>2.227311100955198e-05</v>
       </c>
       <c r="C53" t="n">
-        <v>0.9999987677345509</v>
+        <v>0.9999777268889904</v>
       </c>
       <c r="D53" t="n">
-        <v>0.9999987677345509</v>
+        <v>0.9999777268889904</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2980,17 +2791,17 @@
     <row r="54">
       <c r="A54" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_31.fasta</t>
+          <t>label_UMGS1288_41.fasta</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>2.858783327064351e-06</v>
+        <v>0.0004859355077444505</v>
       </c>
       <c r="C54" t="n">
-        <v>0.9999971412166729</v>
+        <v>0.9995140644922555</v>
       </c>
       <c r="D54" t="n">
-        <v>0.9999971412166729</v>
+        <v>0.9995140644922555</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -3001,17 +2812,17 @@
     <row r="55">
       <c r="A55" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_37.fasta</t>
+          <t>label_UMGS1288_49.fasta</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>6.910282764893693e-07</v>
+        <v>3.820878265115013e-06</v>
       </c>
       <c r="C55" t="n">
-        <v>0.9999993089717235</v>
+        <v>0.9999961791217349</v>
       </c>
       <c r="D55" t="n">
-        <v>0.9999993089717235</v>
+        <v>0.9999961791217349</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -3022,17 +2833,17 @@
     <row r="56">
       <c r="A56" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_38.fasta</t>
+          <t>label_UMGS1288_50.fasta</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>9.973762489234872e-07</v>
+        <v>8.181056447842394e-07</v>
       </c>
       <c r="C56" t="n">
-        <v>0.9999990026237511</v>
+        <v>0.9999991818943552</v>
       </c>
       <c r="D56" t="n">
-        <v>0.9999990026237511</v>
+        <v>0.9999991818943552</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -3043,17 +2854,17 @@
     <row r="57">
       <c r="A57" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_43.fasta</t>
+          <t>label_UMGS1288_54.fasta</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>3.340833866216641e-07</v>
+        <v>1.551945677080724e-06</v>
       </c>
       <c r="C57" t="n">
-        <v>0.9999996659166134</v>
+        <v>0.9999984480543229</v>
       </c>
       <c r="D57" t="n">
-        <v>0.9999996659166134</v>
+        <v>0.9999984480543229</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -3064,17 +2875,17 @@
     <row r="58">
       <c r="A58" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_44.fasta</t>
+          <t>label_UMGS1288_59.fasta</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>5.096798021408944e-07</v>
+        <v>3.530762725523218e-07</v>
       </c>
       <c r="C58" t="n">
-        <v>0.9999994903201979</v>
+        <v>0.9999996469237274</v>
       </c>
       <c r="D58" t="n">
-        <v>0.9999994903201979</v>
+        <v>0.9999996469237274</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -3085,17 +2896,17 @@
     <row r="59">
       <c r="A59" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_45.fasta</t>
+          <t>label_UMGS1288_65.fasta</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>4.211844464863113e-06</v>
+        <v>8.494447963913743e-07</v>
       </c>
       <c r="C59" t="n">
-        <v>0.9999957881555351</v>
+        <v>0.9999991505552036</v>
       </c>
       <c r="D59" t="n">
-        <v>0.9999957881555351</v>
+        <v>0.9999991505552036</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -3106,17 +2917,17 @@
     <row r="60">
       <c r="A60" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_57.fasta</t>
+          <t>label_UMGS1288_73.fasta</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1.460568581634902e-07</v>
+        <v>3.697708121364052e-05</v>
       </c>
       <c r="C60" t="n">
-        <v>0.9999998539431418</v>
+        <v>0.9999630229187864</v>
       </c>
       <c r="D60" t="n">
-        <v>0.9999998539431418</v>
+        <v>0.9999630229187864</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -3127,17 +2938,17 @@
     <row r="61">
       <c r="A61" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_60.fasta</t>
+          <t>label_UMGS1288_78.fasta</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1.628843239220856e-05</v>
+        <v>0.0001798278819998833</v>
       </c>
       <c r="C61" t="n">
-        <v>0.9999837115676078</v>
+        <v>0.9998201721180001</v>
       </c>
       <c r="D61" t="n">
-        <v>0.9999837115676078</v>
+        <v>0.9998201721180001</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -3148,17 +2959,17 @@
     <row r="62">
       <c r="A62" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_69.fasta</t>
+          <t>label_UMGS1288_81.fasta</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>2.922871624688739e-05</v>
+        <v>3.069586299675464e-05</v>
       </c>
       <c r="C62" t="n">
-        <v>0.9999707712837531</v>
+        <v>0.9999693041370032</v>
       </c>
       <c r="D62" t="n">
-        <v>0.9999707712837531</v>
+        <v>0.9999693041370032</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -3169,17 +2980,17 @@
     <row r="63">
       <c r="A63" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_75.fasta</t>
+          <t>label_UMGS1288_82.fasta</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.1241754983175142</v>
+        <v>0.0005204052240049828</v>
       </c>
       <c r="C63" t="n">
-        <v>0.8758245016824858</v>
+        <v>0.999479594775995</v>
       </c>
       <c r="D63" t="n">
-        <v>0.8758245016824858</v>
+        <v>0.999479594775995</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -3190,17 +3001,17 @@
     <row r="64">
       <c r="A64" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_8.fasta</t>
+          <t>label_UMGS1288_95.fasta</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2.055888129737227e-07</v>
+        <v>2.415156566437648e-05</v>
       </c>
       <c r="C64" t="n">
-        <v>0.999999794411187</v>
+        <v>0.9999758484343356</v>
       </c>
       <c r="D64" t="n">
-        <v>0.999999794411187</v>
+        <v>0.9999758484343356</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -3211,17 +3022,17 @@
     <row r="65">
       <c r="A65" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_80.fasta</t>
+          <t>label_UMGS1288_96.fasta</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.003786224274984651</v>
+        <v>0.0001762236977529419</v>
       </c>
       <c r="C65" t="n">
-        <v>0.9962137757250153</v>
+        <v>0.9998237763022471</v>
       </c>
       <c r="D65" t="n">
-        <v>0.9962137757250153</v>
+        <v>0.9998237763022471</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -3232,17 +3043,17 @@
     <row r="66">
       <c r="A66" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_85.fasta</t>
+          <t>label_UMGS1288_98.fasta</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.002118501093763103</v>
+        <v>0.01372416928597198</v>
       </c>
       <c r="C66" t="n">
-        <v>0.9978814989062369</v>
+        <v>0.986275830714028</v>
       </c>
       <c r="D66" t="n">
-        <v>0.9978814989062369</v>
+        <v>0.986275830714028</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -3253,38 +3064,38 @@
     <row r="67">
       <c r="A67" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_91.fasta</t>
+          <t>label_UMGS1288_0.fasta</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.500790836366984</v>
+        <v>0.0004062603254543218</v>
       </c>
       <c r="C67" t="n">
-        <v>0.499209163633016</v>
+        <v>0.9995937396745457</v>
       </c>
       <c r="D67" t="n">
-        <v>0.500790836366984</v>
+        <v>0.9995937396745457</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>s__Phil1 sp001940855</t>
+          <t>s__Phil1 sp004558525</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_99.fasta</t>
+          <t>label_UMGS1288_100.fasta</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.0793717836703125</v>
+        <v>0.008973142788567534</v>
       </c>
       <c r="C68" t="n">
-        <v>0.9206282163296875</v>
+        <v>0.9910268572114325</v>
       </c>
       <c r="D68" t="n">
-        <v>0.9206282163296875</v>
+        <v>0.9910268572114325</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -3295,17 +3106,17 @@
     <row r="69">
       <c r="A69" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_10.fasta</t>
+          <t>label_UMGS1288_106.fasta</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>6.64407517891874e-08</v>
+        <v>0.007568314919203956</v>
       </c>
       <c r="C69" t="n">
-        <v>0.9999999335592482</v>
+        <v>0.992431685080796</v>
       </c>
       <c r="D69" t="n">
-        <v>0.9999999335592482</v>
+        <v>0.992431685080796</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -3316,17 +3127,17 @@
     <row r="70">
       <c r="A70" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_104.fasta</t>
+          <t>label_UMGS1288_108.fasta</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.001628438297915369</v>
+        <v>0.002492298274205051</v>
       </c>
       <c r="C70" t="n">
-        <v>0.9983715617020846</v>
+        <v>0.9975077017257949</v>
       </c>
       <c r="D70" t="n">
-        <v>0.9983715617020846</v>
+        <v>0.9975077017257949</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -3337,17 +3148,17 @@
     <row r="71">
       <c r="A71" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_110.fasta</t>
+          <t>label_UMGS1288_14.fasta</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.0007733545561410261</v>
+        <v>0.0001685786652980692</v>
       </c>
       <c r="C71" t="n">
-        <v>0.999226645443859</v>
+        <v>0.9998314213347019</v>
       </c>
       <c r="D71" t="n">
-        <v>0.999226645443859</v>
+        <v>0.9998314213347019</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -3358,17 +3169,17 @@
     <row r="72">
       <c r="A72" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_15.fasta</t>
+          <t>label_UMGS1288_16.fasta</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>2.027871610632559e-07</v>
+        <v>0.002070554876060005</v>
       </c>
       <c r="C72" t="n">
-        <v>0.9999997972128389</v>
+        <v>0.99792944512394</v>
       </c>
       <c r="D72" t="n">
-        <v>0.9999997972128389</v>
+        <v>0.99792944512394</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -3379,17 +3190,17 @@
     <row r="73">
       <c r="A73" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_19.fasta</t>
+          <t>label_UMGS1288_17.fasta</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1.768763524423456e-06</v>
+        <v>0.0002547056062532915</v>
       </c>
       <c r="C73" t="n">
-        <v>0.9999982312364756</v>
+        <v>0.9997452943937467</v>
       </c>
       <c r="D73" t="n">
-        <v>0.9999982312364756</v>
+        <v>0.9997452943937467</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -3400,38 +3211,38 @@
     <row r="74">
       <c r="A74" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_30.fasta</t>
+          <t>label_UMGS1288_2.fasta</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1.465699151603772e-06</v>
+        <v>0.5500450736815055</v>
       </c>
       <c r="C74" t="n">
-        <v>0.9999985343008484</v>
+        <v>0.4499549263184945</v>
       </c>
       <c r="D74" t="n">
-        <v>0.9999985343008484</v>
+        <v>0.5500450736815055</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>s__Phil1 sp004558525</t>
+          <t>s__Phil1 sp001940855</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_32.fasta</t>
+          <t>label_UMGS1288_23.fasta</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1.07762860324101e-06</v>
+        <v>0.06525064381207135</v>
       </c>
       <c r="C75" t="n">
-        <v>0.9999989223713968</v>
+        <v>0.9347493561879286</v>
       </c>
       <c r="D75" t="n">
-        <v>0.9999989223713968</v>
+        <v>0.9347493561879286</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -3442,17 +3253,17 @@
     <row r="76">
       <c r="A76" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_36.fasta</t>
+          <t>label_UMGS1288_24.fasta</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>2.227311100955198e-05</v>
+        <v>8.47021410655957e-05</v>
       </c>
       <c r="C76" t="n">
-        <v>0.9999777268889904</v>
+        <v>0.9999152978589344</v>
       </c>
       <c r="D76" t="n">
-        <v>0.9999777268889904</v>
+        <v>0.9999152978589344</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -3463,17 +3274,17 @@
     <row r="77">
       <c r="A77" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_41.fasta</t>
+          <t>label_UMGS1288_26.fasta</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.0004859355077444505</v>
+        <v>0.001455362761404122</v>
       </c>
       <c r="C77" t="n">
-        <v>0.9995140644922555</v>
+        <v>0.9985446372385959</v>
       </c>
       <c r="D77" t="n">
-        <v>0.9995140644922555</v>
+        <v>0.9985446372385959</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -3484,17 +3295,17 @@
     <row r="78">
       <c r="A78" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_49.fasta</t>
+          <t>label_UMGS1288_4.fasta</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>3.820878265115013e-06</v>
+        <v>0.003124281423072306</v>
       </c>
       <c r="C78" t="n">
-        <v>0.9999961791217349</v>
+        <v>0.9968757185769277</v>
       </c>
       <c r="D78" t="n">
-        <v>0.9999961791217349</v>
+        <v>0.9968757185769277</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -3505,17 +3316,17 @@
     <row r="79">
       <c r="A79" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_50.fasta</t>
+          <t>label_UMGS1288_47.fasta</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>8.181056447842394e-07</v>
+        <v>1.273451308481111e-05</v>
       </c>
       <c r="C79" t="n">
-        <v>0.9999991818943552</v>
+        <v>0.9999872654869152</v>
       </c>
       <c r="D79" t="n">
-        <v>0.9999991818943552</v>
+        <v>0.9999872654869152</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -3526,17 +3337,17 @@
     <row r="80">
       <c r="A80" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_54.fasta</t>
+          <t>label_UMGS1288_52.fasta</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1.551945677080724e-06</v>
+        <v>6.399405787704815e-05</v>
       </c>
       <c r="C80" t="n">
-        <v>0.9999984480543229</v>
+        <v>0.999936005942123</v>
       </c>
       <c r="D80" t="n">
-        <v>0.9999984480543229</v>
+        <v>0.999936005942123</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -3547,17 +3358,17 @@
     <row r="81">
       <c r="A81" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_59.fasta</t>
+          <t>label_UMGS1288_56.fasta</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>3.530762725523218e-07</v>
+        <v>0.000168646372244674</v>
       </c>
       <c r="C81" t="n">
-        <v>0.9999996469237274</v>
+        <v>0.9998313536277553</v>
       </c>
       <c r="D81" t="n">
-        <v>0.9999996469237274</v>
+        <v>0.9998313536277553</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -3568,17 +3379,17 @@
     <row r="82">
       <c r="A82" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_65.fasta</t>
+          <t>label_UMGS1288_6.fasta</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>8.494447963913743e-07</v>
+        <v>0.0001830318668689657</v>
       </c>
       <c r="C82" t="n">
-        <v>0.9999991505552036</v>
+        <v>0.999816968133131</v>
       </c>
       <c r="D82" t="n">
-        <v>0.9999991505552036</v>
+        <v>0.999816968133131</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -3589,17 +3400,17 @@
     <row r="83">
       <c r="A83" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_73.fasta</t>
+          <t>label_UMGS1288_63.fasta</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>3.697708121364052e-05</v>
+        <v>0.0004177963061672285</v>
       </c>
       <c r="C83" t="n">
-        <v>0.9999630229187864</v>
+        <v>0.9995822036938328</v>
       </c>
       <c r="D83" t="n">
-        <v>0.9999630229187864</v>
+        <v>0.9995822036938328</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -3610,17 +3421,17 @@
     <row r="84">
       <c r="A84" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_78.fasta</t>
+          <t>label_UMGS1288_7.fasta</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.0001798278819998833</v>
+        <v>6.943558250771531e-05</v>
       </c>
       <c r="C84" t="n">
-        <v>0.9998201721180001</v>
+        <v>0.9999305644174923</v>
       </c>
       <c r="D84" t="n">
-        <v>0.9998201721180001</v>
+        <v>0.9999305644174923</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -3631,17 +3442,17 @@
     <row r="85">
       <c r="A85" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_81.fasta</t>
+          <t>label_UMGS1288_71.fasta</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>3.069586299675464e-05</v>
+        <v>0.0002686667741210735</v>
       </c>
       <c r="C85" t="n">
-        <v>0.9999693041370032</v>
+        <v>0.9997313332258789</v>
       </c>
       <c r="D85" t="n">
-        <v>0.9999693041370032</v>
+        <v>0.9997313332258789</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -3652,17 +3463,17 @@
     <row r="86">
       <c r="A86" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_82.fasta</t>
+          <t>label_UMGS1288_72.fasta</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.0005204052240049828</v>
+        <v>0.0007941829508465448</v>
       </c>
       <c r="C86" t="n">
-        <v>0.999479594775995</v>
+        <v>0.9992058170491535</v>
       </c>
       <c r="D86" t="n">
-        <v>0.999479594775995</v>
+        <v>0.9992058170491535</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -3673,17 +3484,17 @@
     <row r="87">
       <c r="A87" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_95.fasta</t>
+          <t>label_UMGS1288_74.fasta</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>2.415156566437648e-05</v>
+        <v>7.593718800513738e-05</v>
       </c>
       <c r="C87" t="n">
-        <v>0.9999758484343356</v>
+        <v>0.9999240628119949</v>
       </c>
       <c r="D87" t="n">
-        <v>0.9999758484343356</v>
+        <v>0.9999240628119949</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -3694,17 +3505,17 @@
     <row r="88">
       <c r="A88" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_96.fasta</t>
+          <t>label_UMGS1288_76.fasta</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.0001762236977529419</v>
+        <v>0.0001764651206699331</v>
       </c>
       <c r="C88" t="n">
-        <v>0.9998237763022471</v>
+        <v>0.9998235348793301</v>
       </c>
       <c r="D88" t="n">
-        <v>0.9998237763022471</v>
+        <v>0.9998235348793301</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -3715,17 +3526,17 @@
     <row r="89">
       <c r="A89" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_98.fasta</t>
+          <t>label_UMGS1288_77.fasta</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.01372416928597198</v>
+        <v>0.01953296994904141</v>
       </c>
       <c r="C89" t="n">
-        <v>0.986275830714028</v>
+        <v>0.9804670300509586</v>
       </c>
       <c r="D89" t="n">
-        <v>0.986275830714028</v>
+        <v>0.9804670300509586</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -3736,17 +3547,17 @@
     <row r="90">
       <c r="A90" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_0.fasta</t>
+          <t>label_UMGS1288_93.fasta</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.0004062603254543218</v>
+        <v>0.0005616913528613265</v>
       </c>
       <c r="C90" t="n">
-        <v>0.9995937396745457</v>
+        <v>0.9994383086471387</v>
       </c>
       <c r="D90" t="n">
-        <v>0.9995937396745457</v>
+        <v>0.9994383086471387</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -3757,17 +3568,17 @@
     <row r="91">
       <c r="A91" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_100.fasta</t>
+          <t>label_UMGS1288_103.fasta</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.008973142788567534</v>
+        <v>0.002487327385229166</v>
       </c>
       <c r="C91" t="n">
-        <v>0.9910268572114325</v>
+        <v>0.9975126726147708</v>
       </c>
       <c r="D91" t="n">
-        <v>0.9910268572114325</v>
+        <v>0.9975126726147708</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -3778,17 +3589,17 @@
     <row r="92">
       <c r="A92" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_106.fasta</t>
+          <t>label_UMGS1288_13.fasta</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.007568314919203956</v>
+        <v>2.974774939046299e-06</v>
       </c>
       <c r="C92" t="n">
-        <v>0.992431685080796</v>
+        <v>0.999997025225061</v>
       </c>
       <c r="D92" t="n">
-        <v>0.992431685080796</v>
+        <v>0.999997025225061</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -3799,17 +3610,17 @@
     <row r="93">
       <c r="A93" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_108.fasta</t>
+          <t>label_UMGS1288_18.fasta</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.002492298274205051</v>
+        <v>4.715045618608471e-06</v>
       </c>
       <c r="C93" t="n">
-        <v>0.9975077017257949</v>
+        <v>0.9999952849543814</v>
       </c>
       <c r="D93" t="n">
-        <v>0.9975077017257949</v>
+        <v>0.9999952849543814</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -3820,17 +3631,17 @@
     <row r="94">
       <c r="A94" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_14.fasta</t>
+          <t>label_UMGS1288_21.fasta</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.0001685786652980692</v>
+        <v>0.0001386049933195244</v>
       </c>
       <c r="C94" t="n">
-        <v>0.9998314213347019</v>
+        <v>0.9998613950066805</v>
       </c>
       <c r="D94" t="n">
-        <v>0.9998314213347019</v>
+        <v>0.9998613950066805</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -3841,17 +3652,17 @@
     <row r="95">
       <c r="A95" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_16.fasta</t>
+          <t>label_UMGS1288_25.fasta</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.002070554876060005</v>
+        <v>9.522956518903669e-07</v>
       </c>
       <c r="C95" t="n">
-        <v>0.99792944512394</v>
+        <v>0.9999990477043481</v>
       </c>
       <c r="D95" t="n">
-        <v>0.99792944512394</v>
+        <v>0.9999990477043481</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -3862,17 +3673,17 @@
     <row r="96">
       <c r="A96" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_17.fasta</t>
+          <t>label_UMGS1288_35.fasta</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.0002547056062532915</v>
+        <v>2.266270089923417e-06</v>
       </c>
       <c r="C96" t="n">
-        <v>0.9997452943937467</v>
+        <v>0.9999977337299101</v>
       </c>
       <c r="D96" t="n">
-        <v>0.9997452943937467</v>
+        <v>0.9999977337299101</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -3883,38 +3694,38 @@
     <row r="97">
       <c r="A97" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_2.fasta</t>
+          <t>label_UMGS1288_42.fasta</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.5500450736815055</v>
+        <v>8.207551421590686e-05</v>
       </c>
       <c r="C97" t="n">
-        <v>0.4499549263184945</v>
+        <v>0.9999179244857841</v>
       </c>
       <c r="D97" t="n">
-        <v>0.5500450736815055</v>
+        <v>0.9999179244857841</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>s__Phil1 sp001940855</t>
+          <t>s__Phil1 sp004558525</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_23.fasta</t>
+          <t>label_UMGS1288_48.fasta</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.06525064381207135</v>
+        <v>1.066838748675636e-06</v>
       </c>
       <c r="C98" t="n">
-        <v>0.9347493561879286</v>
+        <v>0.9999989331612513</v>
       </c>
       <c r="D98" t="n">
-        <v>0.9347493561879286</v>
+        <v>0.9999989331612513</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -3925,17 +3736,17 @@
     <row r="99">
       <c r="A99" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_24.fasta</t>
+          <t>label_UMGS1288_55.fasta</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>8.47021410655957e-05</v>
+        <v>2.519239217491087e-05</v>
       </c>
       <c r="C99" t="n">
-        <v>0.9999152978589344</v>
+        <v>0.9999748076078251</v>
       </c>
       <c r="D99" t="n">
-        <v>0.9999152978589344</v>
+        <v>0.9999748076078251</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -3946,17 +3757,17 @@
     <row r="100">
       <c r="A100" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_26.fasta</t>
+          <t>label_UMGS1288_58.fasta</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.001455362761404122</v>
+        <v>1.508180553955185e-05</v>
       </c>
       <c r="C100" t="n">
-        <v>0.9985446372385959</v>
+        <v>0.9999849181944604</v>
       </c>
       <c r="D100" t="n">
-        <v>0.9985446372385959</v>
+        <v>0.9999849181944604</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -3967,17 +3778,17 @@
     <row r="101">
       <c r="A101" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_4.fasta</t>
+          <t>label_UMGS1288_67.fasta</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.003124281423072306</v>
+        <v>5.607790435346871e-07</v>
       </c>
       <c r="C101" t="n">
-        <v>0.9968757185769277</v>
+        <v>0.9999994392209565</v>
       </c>
       <c r="D101" t="n">
-        <v>0.9968757185769277</v>
+        <v>0.9999994392209565</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -3988,17 +3799,17 @@
     <row r="102">
       <c r="A102" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_47.fasta</t>
+          <t>label_UMGS1288_68.fasta</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>1.273451308481111e-05</v>
+        <v>2.074267243745709e-06</v>
       </c>
       <c r="C102" t="n">
-        <v>0.9999872654869152</v>
+        <v>0.9999979257327563</v>
       </c>
       <c r="D102" t="n">
-        <v>0.9999872654869152</v>
+        <v>0.9999979257327563</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -4009,17 +3820,17 @@
     <row r="103">
       <c r="A103" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_52.fasta</t>
+          <t>label_UMGS1288_70.fasta</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>6.399405787704815e-05</v>
+        <v>0.0002427809968095218</v>
       </c>
       <c r="C103" t="n">
-        <v>0.999936005942123</v>
+        <v>0.9997572190031905</v>
       </c>
       <c r="D103" t="n">
-        <v>0.999936005942123</v>
+        <v>0.9997572190031905</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -4030,17 +3841,17 @@
     <row r="104">
       <c r="A104" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_56.fasta</t>
+          <t>label_UMGS1288_79.fasta</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.000168646372244674</v>
+        <v>2.609829971245148e-06</v>
       </c>
       <c r="C104" t="n">
-        <v>0.9998313536277553</v>
+        <v>0.9999973901700288</v>
       </c>
       <c r="D104" t="n">
-        <v>0.9998313536277553</v>
+        <v>0.9999973901700288</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -4051,17 +3862,17 @@
     <row r="105">
       <c r="A105" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_6.fasta</t>
+          <t>label_UMGS1288_86.fasta</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.0001830318668689657</v>
+        <v>1.85966800880788e-05</v>
       </c>
       <c r="C105" t="n">
-        <v>0.999816968133131</v>
+        <v>0.9999814033199119</v>
       </c>
       <c r="D105" t="n">
-        <v>0.999816968133131</v>
+        <v>0.9999814033199119</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -4072,17 +3883,17 @@
     <row r="106">
       <c r="A106" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_63.fasta</t>
+          <t>label_UMGS1288_87.fasta</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.0004177963061672285</v>
+        <v>0.0001147017216035495</v>
       </c>
       <c r="C106" t="n">
-        <v>0.9995822036938328</v>
+        <v>0.9998852982783965</v>
       </c>
       <c r="D106" t="n">
-        <v>0.9995822036938328</v>
+        <v>0.9998852982783965</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -4093,17 +3904,17 @@
     <row r="107">
       <c r="A107" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_7.fasta</t>
+          <t>label_UMGS1288_89.fasta</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>6.943558250771531e-05</v>
+        <v>1.111660958541538e-05</v>
       </c>
       <c r="C107" t="n">
-        <v>0.9999305644174923</v>
+        <v>0.9999888833904146</v>
       </c>
       <c r="D107" t="n">
-        <v>0.9999305644174923</v>
+        <v>0.9999888833904146</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -4114,17 +3925,17 @@
     <row r="108">
       <c r="A108" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_71.fasta</t>
+          <t>label_UMGS1288_94.fasta</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.0002686667741210735</v>
+        <v>1.975237730800217e-05</v>
       </c>
       <c r="C108" t="n">
-        <v>0.9997313332258789</v>
+        <v>0.999980247622692</v>
       </c>
       <c r="D108" t="n">
-        <v>0.9997313332258789</v>
+        <v>0.999980247622692</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -4135,502 +3946,19 @@
     <row r="109">
       <c r="A109" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1288_72.fasta</t>
+          <t>label_UMGS1288_97.fasta</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.0007941829508465448</v>
+        <v>5.068563255039571e-05</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9992058170491535</v>
+        <v>0.9999493143674496</v>
       </c>
       <c r="D109" t="n">
-        <v>0.9992058170491535</v>
+        <v>0.9999493143674496</v>
       </c>
       <c r="E109" t="inlineStr">
-        <is>
-          <t>s__Phil1 sp004558525</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1288_74.fasta</t>
-        </is>
-      </c>
-      <c r="B110" t="n">
-        <v>7.593718800513738e-05</v>
-      </c>
-      <c r="C110" t="n">
-        <v>0.9999240628119949</v>
-      </c>
-      <c r="D110" t="n">
-        <v>0.9999240628119949</v>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>s__Phil1 sp004558525</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1288_76.fasta</t>
-        </is>
-      </c>
-      <c r="B111" t="n">
-        <v>0.0001764651206699331</v>
-      </c>
-      <c r="C111" t="n">
-        <v>0.9998235348793301</v>
-      </c>
-      <c r="D111" t="n">
-        <v>0.9998235348793301</v>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>s__Phil1 sp004558525</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1288_77.fasta</t>
-        </is>
-      </c>
-      <c r="B112" t="n">
-        <v>0.01953296994904141</v>
-      </c>
-      <c r="C112" t="n">
-        <v>0.9804670300509586</v>
-      </c>
-      <c r="D112" t="n">
-        <v>0.9804670300509586</v>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>s__Phil1 sp004558525</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1288_93.fasta</t>
-        </is>
-      </c>
-      <c r="B113" t="n">
-        <v>0.0005616913528613265</v>
-      </c>
-      <c r="C113" t="n">
-        <v>0.9994383086471387</v>
-      </c>
-      <c r="D113" t="n">
-        <v>0.9994383086471387</v>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>s__Phil1 sp004558525</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1288_103.fasta</t>
-        </is>
-      </c>
-      <c r="B114" t="n">
-        <v>0.002487327385229166</v>
-      </c>
-      <c r="C114" t="n">
-        <v>0.9975126726147708</v>
-      </c>
-      <c r="D114" t="n">
-        <v>0.9975126726147708</v>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>s__Phil1 sp004558525</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1288_13.fasta</t>
-        </is>
-      </c>
-      <c r="B115" t="n">
-        <v>2.974774939046299e-06</v>
-      </c>
-      <c r="C115" t="n">
-        <v>0.999997025225061</v>
-      </c>
-      <c r="D115" t="n">
-        <v>0.999997025225061</v>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>s__Phil1 sp004558525</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1288_18.fasta</t>
-        </is>
-      </c>
-      <c r="B116" t="n">
-        <v>4.715045618608471e-06</v>
-      </c>
-      <c r="C116" t="n">
-        <v>0.9999952849543814</v>
-      </c>
-      <c r="D116" t="n">
-        <v>0.9999952849543814</v>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>s__Phil1 sp004558525</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1288_21.fasta</t>
-        </is>
-      </c>
-      <c r="B117" t="n">
-        <v>0.0001386049933195244</v>
-      </c>
-      <c r="C117" t="n">
-        <v>0.9998613950066805</v>
-      </c>
-      <c r="D117" t="n">
-        <v>0.9998613950066805</v>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>s__Phil1 sp004558525</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1288_25.fasta</t>
-        </is>
-      </c>
-      <c r="B118" t="n">
-        <v>9.522956518903669e-07</v>
-      </c>
-      <c r="C118" t="n">
-        <v>0.9999990477043481</v>
-      </c>
-      <c r="D118" t="n">
-        <v>0.9999990477043481</v>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>s__Phil1 sp004558525</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1288_35.fasta</t>
-        </is>
-      </c>
-      <c r="B119" t="n">
-        <v>2.266270089923417e-06</v>
-      </c>
-      <c r="C119" t="n">
-        <v>0.9999977337299101</v>
-      </c>
-      <c r="D119" t="n">
-        <v>0.9999977337299101</v>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>s__Phil1 sp004558525</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1288_42.fasta</t>
-        </is>
-      </c>
-      <c r="B120" t="n">
-        <v>8.207551421590686e-05</v>
-      </c>
-      <c r="C120" t="n">
-        <v>0.9999179244857841</v>
-      </c>
-      <c r="D120" t="n">
-        <v>0.9999179244857841</v>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>s__Phil1 sp004558525</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1288_48.fasta</t>
-        </is>
-      </c>
-      <c r="B121" t="n">
-        <v>1.066838748675636e-06</v>
-      </c>
-      <c r="C121" t="n">
-        <v>0.9999989331612513</v>
-      </c>
-      <c r="D121" t="n">
-        <v>0.9999989331612513</v>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>s__Phil1 sp004558525</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1288_55.fasta</t>
-        </is>
-      </c>
-      <c r="B122" t="n">
-        <v>2.519239217491087e-05</v>
-      </c>
-      <c r="C122" t="n">
-        <v>0.9999748076078251</v>
-      </c>
-      <c r="D122" t="n">
-        <v>0.9999748076078251</v>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>s__Phil1 sp004558525</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1288_58.fasta</t>
-        </is>
-      </c>
-      <c r="B123" t="n">
-        <v>1.508180553955185e-05</v>
-      </c>
-      <c r="C123" t="n">
-        <v>0.9999849181944604</v>
-      </c>
-      <c r="D123" t="n">
-        <v>0.9999849181944604</v>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>s__Phil1 sp004558525</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1288_67.fasta</t>
-        </is>
-      </c>
-      <c r="B124" t="n">
-        <v>5.607790435346871e-07</v>
-      </c>
-      <c r="C124" t="n">
-        <v>0.9999994392209565</v>
-      </c>
-      <c r="D124" t="n">
-        <v>0.9999994392209565</v>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>s__Phil1 sp004558525</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1288_68.fasta</t>
-        </is>
-      </c>
-      <c r="B125" t="n">
-        <v>2.074267243745709e-06</v>
-      </c>
-      <c r="C125" t="n">
-        <v>0.9999979257327563</v>
-      </c>
-      <c r="D125" t="n">
-        <v>0.9999979257327563</v>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>s__Phil1 sp004558525</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1288_70.fasta</t>
-        </is>
-      </c>
-      <c r="B126" t="n">
-        <v>0.0002427809968095218</v>
-      </c>
-      <c r="C126" t="n">
-        <v>0.9997572190031905</v>
-      </c>
-      <c r="D126" t="n">
-        <v>0.9997572190031905</v>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>s__Phil1 sp004558525</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1288_79.fasta</t>
-        </is>
-      </c>
-      <c r="B127" t="n">
-        <v>2.609829971245148e-06</v>
-      </c>
-      <c r="C127" t="n">
-        <v>0.9999973901700288</v>
-      </c>
-      <c r="D127" t="n">
-        <v>0.9999973901700288</v>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>s__Phil1 sp004558525</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1288_86.fasta</t>
-        </is>
-      </c>
-      <c r="B128" t="n">
-        <v>1.85966800880788e-05</v>
-      </c>
-      <c r="C128" t="n">
-        <v>0.9999814033199119</v>
-      </c>
-      <c r="D128" t="n">
-        <v>0.9999814033199119</v>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>s__Phil1 sp004558525</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1288_87.fasta</t>
-        </is>
-      </c>
-      <c r="B129" t="n">
-        <v>0.0001147017216035495</v>
-      </c>
-      <c r="C129" t="n">
-        <v>0.9998852982783965</v>
-      </c>
-      <c r="D129" t="n">
-        <v>0.9998852982783965</v>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>s__Phil1 sp004558525</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1288_89.fasta</t>
-        </is>
-      </c>
-      <c r="B130" t="n">
-        <v>1.111660958541538e-05</v>
-      </c>
-      <c r="C130" t="n">
-        <v>0.9999888833904146</v>
-      </c>
-      <c r="D130" t="n">
-        <v>0.9999888833904146</v>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>s__Phil1 sp004558525</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1288_94.fasta</t>
-        </is>
-      </c>
-      <c r="B131" t="n">
-        <v>1.975237730800217e-05</v>
-      </c>
-      <c r="C131" t="n">
-        <v>0.999980247622692</v>
-      </c>
-      <c r="D131" t="n">
-        <v>0.999980247622692</v>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>s__Phil1 sp004558525</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1288_97.fasta</t>
-        </is>
-      </c>
-      <c r="B132" t="n">
-        <v>5.068563255039571e-05</v>
-      </c>
-      <c r="C132" t="n">
-        <v>0.9999493143674496</v>
-      </c>
-      <c r="D132" t="n">
-        <v>0.9999493143674496</v>
-      </c>
-      <c r="E132" t="inlineStr">
         <is>
           <t>s__Phil1 sp004558525</t>
         </is>
